--- a/DRE/cap06-Workflows/WF-Overhaul/IPT_ACRM_TablasDetalladaVentas_150521.xlsx
+++ b/DRE/cap06-Workflows/WF-Overhaul/IPT_ACRM_TablasDetalladaVentas_150521.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7605" tabRatio="919"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7605" tabRatio="919" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Tareas_VTA.010" sheetId="3" r:id="rId1"/>
     <sheet name="Áreas_VTA.010" sheetId="13" r:id="rId2"/>
     <sheet name="Tareas_VTA.020" sheetId="1" r:id="rId3"/>
     <sheet name="Áreas_VTA.020" sheetId="2" r:id="rId4"/>
-    <sheet name="Tareas_VTA.costes" sheetId="10" r:id="rId5"/>
-    <sheet name="Áreas_VTA.costes" sheetId="12" r:id="rId6"/>
-    <sheet name="Tareas_VTA.030" sheetId="5" r:id="rId7"/>
-    <sheet name="Áreas_VTA.030" sheetId="6" r:id="rId8"/>
-    <sheet name="Tareas_VTA.040" sheetId="7" r:id="rId9"/>
-    <sheet name="Áreas_VTA.040" sheetId="9" r:id="rId10"/>
+    <sheet name="Tareas_VTA.030" sheetId="5" r:id="rId5"/>
+    <sheet name="Áreas_VTA.030" sheetId="6" r:id="rId6"/>
+    <sheet name="Tareas_VTA.040" sheetId="7" r:id="rId7"/>
+    <sheet name="Áreas_VTA.040" sheetId="9" r:id="rId8"/>
+    <sheet name="Tareas_VTA.costes" sheetId="10" r:id="rId9"/>
+    <sheet name="Áreas_VTA.costes" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="87">
   <si>
     <t xml:space="preserve">Identificador </t>
   </si>
@@ -185,25 +185,40 @@
     <t>VTA.020.35</t>
   </si>
   <si>
-    <t>WF1</t>
-  </si>
-  <si>
-    <t>WF2</t>
-  </si>
-  <si>
-    <t>WF3</t>
-  </si>
-  <si>
-    <t>WF4</t>
-  </si>
-  <si>
-    <t>WF5</t>
-  </si>
-  <si>
-    <t>WF6</t>
-  </si>
-  <si>
-    <t>WF7</t>
+    <t>Delivery Times</t>
+  </si>
+  <si>
+    <t>Financial Credit</t>
+  </si>
+  <si>
+    <t>Item Price Double-Check</t>
+  </si>
+  <si>
+    <t>VTA.030.05</t>
+  </si>
+  <si>
+    <t>VTA.030.10</t>
+  </si>
+  <si>
+    <t>VTA.030.15</t>
+  </si>
+  <si>
+    <t>VTA.030.20</t>
+  </si>
+  <si>
+    <t>KAM</t>
+  </si>
+  <si>
+    <t>Back-office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Gestión de la Garantía</t>
+  </si>
+  <si>
+    <t>Planificar Próxima Actividad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividades y tareas </t>
   </si>
   <si>
     <t>Commercial Activity Request</t>
@@ -215,7 +230,7 @@
     <t>Register Product on SAP</t>
   </si>
   <si>
-    <t>Binding Offer Product</t>
+    <t>Binding Offer</t>
   </si>
   <si>
     <t>Logistics</t>
@@ -230,49 +245,55 @@
     <t>Technical Support</t>
   </si>
   <si>
-    <t>Delivery Times</t>
-  </si>
-  <si>
-    <t>Financial Credit</t>
-  </si>
-  <si>
-    <t>Item Price Double-Check</t>
-  </si>
-  <si>
-    <t>WF8</t>
-  </si>
-  <si>
-    <t>WF9</t>
-  </si>
-  <si>
-    <t>WF10</t>
-  </si>
-  <si>
-    <t>WF11</t>
-  </si>
-  <si>
-    <t>VTA.030.05</t>
-  </si>
-  <si>
-    <t>VTA.030.10</t>
-  </si>
-  <si>
-    <t>VTA.030.15</t>
-  </si>
-  <si>
-    <t>VTA.030.20</t>
-  </si>
-  <si>
-    <t>KAM</t>
-  </si>
-  <si>
-    <t>Back-office</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Gestión de la Garantía</t>
-  </si>
-  <si>
-    <t>Planificar Próxima Actividad</t>
+    <t>VTA.020.40</t>
+  </si>
+  <si>
+    <t>VTA.020.45</t>
+  </si>
+  <si>
+    <t>VTA.020.50</t>
+  </si>
+  <si>
+    <t>VTA.020.55</t>
+  </si>
+  <si>
+    <t>VTA.020.60</t>
+  </si>
+  <si>
+    <t>VTA.020.65</t>
+  </si>
+  <si>
+    <t>VTA.020.70</t>
+  </si>
+  <si>
+    <t>VTA.020.75</t>
+  </si>
+  <si>
+    <t>VTA.020.80</t>
+  </si>
+  <si>
+    <t>VTA.020.85</t>
+  </si>
+  <si>
+    <t>VTA.020.90</t>
+  </si>
+  <si>
+    <t>Departamento jurídico</t>
+  </si>
+  <si>
+    <t>Departamento financiero</t>
+  </si>
+  <si>
+    <t>Departamento I+D</t>
+  </si>
+  <si>
+    <t>Departamento de logística</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>Actividades y tareas</t>
   </si>
 </sst>
 </file>
@@ -426,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -469,11 +490,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -481,45 +532,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -803,7 +817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -834,7 +848,7 @@
         <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -844,59 +858,144 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E4"/>
+  <dimension ref="B2:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="C4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="22"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="23"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -905,7 +1004,7 @@
   <dimension ref="B4:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+      <selection activeCell="B4" sqref="B4:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,14 +1016,14 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25" t="s">
+      <c r="B4" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="19" t="s">
         <v>13</v>
       </c>
     </row>
@@ -935,8 +1034,8 @@
       <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
@@ -957,7 +1056,7 @@
         <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>43</v>
@@ -1029,7 +1128,7 @@
   <dimension ref="B3:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C21"/>
+      <selection activeCell="C21" sqref="B3:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,7 +1155,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>20</v>
@@ -1064,7 +1163,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
@@ -1072,7 +1171,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
@@ -1080,7 +1179,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>5</v>
@@ -1088,106 +1187,106 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>57</v>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>58</v>
+        <v>45</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>59</v>
+        <v>46</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>60</v>
+        <v>47</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>62</v>
+        <v>49</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1201,7 +1300,7 @@
   <dimension ref="B4:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="B4:E23"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1213,14 +1312,14 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25" t="s">
+      <c r="B4" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="19" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1231,8 +1330,8 @@
       <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
@@ -1245,26 +1344,26 @@
         <v>43</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
@@ -1272,11 +1371,13 @@
       <c r="D8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>4</v>
@@ -1284,11 +1385,13 @@
       <c r="D9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>5</v>
@@ -1297,12 +1400,12 @@
         <v>43</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -1310,131 +1413,177 @@
       <c r="D11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>77</v>
+      <c r="E12" s="30" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1447,6 +1596,246 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="B2:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C8"/>
   <sheetViews>
@@ -1519,329 +1908,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="28"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="29"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/DRE/cap06-Workflows/WF-Overhaul/IPT_ACRM_TablasDetalladaVentas_150521.xlsx
+++ b/DRE/cap06-Workflows/WF-Overhaul/IPT_ACRM_TablasDetalladaVentas_150521.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7605" tabRatio="919" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7605" tabRatio="919" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tareas_VTA.010" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="78">
   <si>
     <t xml:space="preserve">Identificador </t>
   </si>
@@ -74,9 +74,6 @@
     <t>Departamento Responsable</t>
   </si>
   <si>
-    <t>Persona Responsable</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -152,12 +149,6 @@
     <t>APG</t>
   </si>
   <si>
-    <t>Jorge Martínez</t>
-  </si>
-  <si>
-    <t>Julián Balda</t>
-  </si>
-  <si>
     <t>VTA.010.05</t>
   </si>
   <si>
@@ -167,9 +158,6 @@
     <t>Departamento comercial</t>
   </si>
   <si>
-    <t>KAM asignado</t>
-  </si>
-  <si>
     <t>VTA.020.15</t>
   </si>
   <si>
@@ -206,12 +194,6 @@
     <t>VTA.030.20</t>
   </si>
   <si>
-    <t>KAM</t>
-  </si>
-  <si>
-    <t>Back-office</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Gestión de la Garantía</t>
   </si>
   <si>
@@ -221,9 +203,6 @@
     <t xml:space="preserve">Actividades y tareas </t>
   </si>
   <si>
-    <t>Commercial Activity Request</t>
-  </si>
-  <si>
     <t>Product Modification</t>
   </si>
   <si>
@@ -275,9 +254,6 @@
     <t>VTA.020.85</t>
   </si>
   <si>
-    <t>VTA.020.90</t>
-  </si>
-  <si>
     <t>Departamento jurídico</t>
   </si>
   <si>
@@ -288,9 +264,6 @@
   </si>
   <si>
     <t>Departamento de logística</t>
-  </si>
-  <si>
-    <t>CRM</t>
   </si>
   <si>
     <t>Actividades y tareas</t>
@@ -300,7 +273,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,12 +284,6 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -447,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -484,15 +451,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -505,6 +478,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -523,17 +499,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -837,18 +807,18 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -858,10 +828,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E11"/>
+  <dimension ref="B2:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,128 +839,110 @@
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="19" t="s">
+    </row>
+    <row r="3" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D8" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="25"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="26"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="13" t="s">
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="22"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
   </mergeCells>
@@ -1001,10 +953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:E19"/>
+  <dimension ref="B4:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,112 +964,88 @@
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19" t="s">
+    <row r="4" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="19" t="s">
+    </row>
+    <row r="5" spans="2:4" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D8"/>
-      <c r="E8"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D9"/>
-      <c r="E9"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D10"/>
-      <c r="E10"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D11"/>
-      <c r="E11"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D12"/>
-      <c r="E12"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D13"/>
-      <c r="E13"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D14"/>
-      <c r="E14"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D15"/>
-      <c r="E15"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D16"/>
-      <c r="E16"/>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17"/>
-      <c r="E17"/>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18"/>
-      <c r="E18"/>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19"/>
-      <c r="E19"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1125,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C21"/>
+  <dimension ref="B3:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="B3:C21"/>
+      <selection activeCell="B4" sqref="B4:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,7 +1075,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>3</v>
@@ -1155,15 +1083,15 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
@@ -1171,7 +1099,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
@@ -1179,7 +1107,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>5</v>
@@ -1187,106 +1115,98 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="29" t="s">
+      <c r="B10" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>62</v>
+      <c r="B11" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>63</v>
+        <v>41</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>64</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>65</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>66</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>67</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>68</v>
+        <v>63</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>50</v>
+        <v>65</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>52</v>
+        <v>66</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1297,10 +1217,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:E23"/>
+  <dimension ref="B4:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,287 +1228,216 @@
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="8" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19" t="s">
+    <row r="4" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="19" t="s">
+    </row>
+    <row r="5" spans="2:4" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="15" t="s">
+      <c r="C16" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="D19" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="D20" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="D21" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>51</v>
-      </c>
       <c r="D22" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
     <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1619,7 +1468,7 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -1627,7 +1476,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
@@ -1635,7 +1484,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -1643,7 +1492,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
@@ -1656,10 +1505,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E7"/>
+  <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E7"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1667,76 +1516,66 @@
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" customWidth="1"/>
     <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19" t="s">
+    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="19" t="s">
+    </row>
+    <row r="3" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1765,11 +1604,11 @@
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
-        <v>22</v>
+      <c r="B3" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1779,10 +1618,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E4"/>
+  <dimension ref="B2:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="B2:E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1790,46 +1629,39 @@
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" customWidth="1"/>
     <col min="4" max="4" width="32.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19" t="s">
+    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="19" t="s">
+    </row>
+    <row r="3" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
-        <v>22</v>
+      <c r="D3" s="23"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1859,50 +1691,50 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/DRE/cap06-Workflows/WF-Overhaul/IPT_ACRM_TablasDetalladaVentas_150521.xlsx
+++ b/DRE/cap06-Workflows/WF-Overhaul/IPT_ACRM_TablasDetalladaVentas_150521.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Campos\Desktop\Documents\GitHub\Ingeteam\DRE\cap06-Workflows\WF-Overhaul\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\Ingeteam\DRE\cap06-Workflows\WF-Overhaul\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7605" tabRatio="919" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7605" tabRatio="919" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Tareas_VTA.010" sheetId="3" r:id="rId1"/>
@@ -282,7 +282,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -414,96 +414,85 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -788,16 +777,18 @@
   <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="14"/>
+    <col min="2" max="2" width="16" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -806,18 +797,18 @@
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -831,111 +822,113 @@
   <dimension ref="B2:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="14"/>
+    <col min="2" max="2" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="22"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="25"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="7" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="26"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="7" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="15" t="s">
         <v>33</v>
       </c>
     </row>
@@ -956,91 +949,93 @@
   <dimension ref="B4:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="14"/>
+    <col min="2" max="2" width="10.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="2:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:4" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+    <row r="5" spans="2:4" s="20" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="18" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D8"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D9"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D10"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D11"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D12"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D13"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D14"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D15"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D16"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19"/>
+      <c r="D19" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1048,6 +1043,7 @@
     <mergeCell ref="D4:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1055,17 +1051,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="14"/>
+    <col min="2" max="2" width="16" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1074,138 +1070,138 @@
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
+    <row r="10" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="24" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="25" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="25" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="25" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="25" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="25" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="25" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="25" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="25" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="25" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1219,219 +1215,221 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37" style="8" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="14"/>
+    <col min="2" max="2" width="10.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" style="26" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:4" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="2:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:4" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+    <row r="5" spans="2:4" s="20" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="18" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="16" t="s">
+    <row r="12" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1449,16 +1447,18 @@
   <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="14"/>
+    <col min="2" max="2" width="16" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1467,34 +1467,34 @@
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="15" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1508,69 +1508,71 @@
   <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="14"/>
+    <col min="2" max="2" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="22"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1586,28 +1588,30 @@
   <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="14"/>
+    <col min="2" max="2" width="16" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="15" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1620,43 +1624,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="14"/>
+    <col min="2" max="2" width="14.7109375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="23"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1672,68 +1678,70 @@
   <dimension ref="B2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="14"/>
+    <col min="2" max="2" width="16" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="15" t="s">
         <v>27</v>
       </c>
     </row>
